--- a/data/Gerardo TorresT4-2024.xlsx
+++ b/data/Gerardo TorresT4-2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="By Song" sheetId="1" state="visible" r:id="rId1"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:I197"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F197"/>
@@ -503,6 +503,8 @@
     <col width="25" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -510,6 +512,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -517,6 +520,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -594,8 +598,6 @@
       <c r="F11" s="9" t="n">
         <v>239.66048544</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -3961,7 +3963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -3973,6 +3975,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3980,6 +3984,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3987,6 +3992,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -4240,7 +4246,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
       <c r="D27" s="2" t="n">
         <v>17824</v>
       </c>
@@ -4432,7 +4437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -4444,6 +4449,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -4451,6 +4458,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -4458,6 +4466,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
